--- a/approaches/our_data/our_ground_truth/GitLab Groups API/response_property_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Groups API/response_property_constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Groups API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth_new\GitLab Groups API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537DB5F-CA60-49D0-BBD8-0C2D3852E467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C3FAA-0F6B-48EE-9432-4F665910A007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="1860" windowWidth="23685" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="36">
   <si>
     <t>operation</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Hook</t>
+  </si>
+  <si>
+    <t>ssh_url_to_repo</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,9 +1643,328 @@
         <v>7</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D47" xr:uid="{E15EE107-0E7C-4374-8AEF-150679E64C93}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+  <autoFilter ref="A1:D70" xr:uid="{E15EE107-0E7C-4374-8AEF-150679E64C93}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
